--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
   <si>
     <t>Doi</t>
   </si>
@@ -266,6 +266,39 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,   F.H.%Koh%NULL%1,   JT%Wu%NULL%1,   S.%Ngaserin%NULL%1,   A.%Ng%NULL%1,   BC%Ong%NULL%1,   V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,    Daniel%Coombs%NULL%1,    Julianne%Skarha%NULL%1,    Brandon%del Pozo%NULL%1,    Josiah%Rich%NULL%1,    Faye%Taxman%NULL%1,    Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,    Orit%Abrahim%NULL%2,    Orit%Abrahim%NULL%0,    Chiara%Altare%NULL%2,    Chiara%Altare%NULL%0,    Stephen A.%Lauer%NULL%2,    Stephen A.%Lauer%NULL%0,    Krya H.%Grantz%NULL%2,    Krya H.%Grantz%NULL%0,    Andrew S.%Azman%NULL%2,    Andrew S.%Azman%NULL%0,    Paul%Spiegel%NULL%2,    Paul%Spiegel%NULL%0,    Parveen%Parmar%NULL%3,    Parveen%Parmar%NULL%0,    Parveen%Parmar%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,     H.% Rihawi%null%1,     S.% Safadi%null%1,     M. A.% McGlasson%null%1,     W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,     C.% Infante%null%1,     I.% Vieitez%null%1,     S.% Larrea%null%1,     C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,    Hande%Gencer%NULL%1,    Katja%Kajikhina%NULL%1,    Sven%Rohleder%NULL%1,    Claudia%Hövener%NULL%1,    Marie%Tallarek%NULL%1,    Jacob%Spallek%NULL%1,    Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,    F.H.%Koh%NULL%1,    JT%Wu%NULL%1,    S.%Ngaserin%NULL%1,    A.%Ng%NULL%1,    BC%Ong%NULL%1,    V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -589,6 +622,9 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -604,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -614,6 +650,9 @@
       </c>
       <c r="H2" t="s">
         <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -640,6 +679,9 @@
       </c>
       <c r="H3" t="s">
         <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -656,16 +698,19 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -682,16 +727,19 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +756,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -718,6 +766,9 @@
       </c>
       <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -745,6 +796,9 @@
       <c r="H7" t="s">
         <v>50</v>
       </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
@@ -760,7 +814,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -770,6 +824,9 @@
       </c>
       <c r="H8" t="s">
         <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="97">
   <si>
     <t>Doi</t>
   </si>
@@ -299,6 +299,60 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,    F.H.%Koh%NULL%1,    JT%Wu%NULL%1,    S.%Ngaserin%NULL%1,    A.%Ng%NULL%1,    BC%Ong%NULL%1,    V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,     Daniel%Coombs%NULL%1,     Julianne%Skarha%NULL%1,     Brandon%del Pozo%NULL%1,     Josiah%Rich%NULL%1,     Faye%Taxman%NULL%1,     Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,     Orit%Abrahim%NULL%2,     Orit%Abrahim%NULL%0,     Chiara%Altare%NULL%2,     Chiara%Altare%NULL%0,     Stephen A.%Lauer%NULL%2,     Stephen A.%Lauer%NULL%0,     Krya H.%Grantz%NULL%2,     Krya H.%Grantz%NULL%0,     Andrew S.%Azman%NULL%2,     Andrew S.%Azman%NULL%0,     Paul%Spiegel%NULL%2,     Paul%Spiegel%NULL%0,     Parveen%Parmar%NULL%3,     Parveen%Parmar%NULL%0,     Parveen%Parmar%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,      H.% Rihawi%null%1,      S.% Safadi%null%1,      M. A.% McGlasson%null%1,      W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,      C.% Infante%null%1,      I.% Vieitez%null%1,      S.% Larrea%null%1,      C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,     Hande%Gencer%NULL%1,     Katja%Kajikhina%NULL%1,     Sven%Rohleder%NULL%1,     Claudia%Hövener%NULL%1,     Marie%Tallarek%NULL%1,     Jacob%Spallek%NULL%1,     Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,     F.H.%Koh%NULL%1,     JT%Wu%NULL%1,     S.%Ngaserin%NULL%1,     A.%Ng%NULL%1,     BC%Ong%NULL%1,     V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,      Daniel%Coombs%NULL%1,      Julianne%Skarha%NULL%1,      Brandon%del Pozo%NULL%1,      Josiah%Rich%NULL%1,      Faye%Taxman%NULL%1,      Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,      Orit%Abrahim%NULL%2,      Orit%Abrahim%NULL%0,      Chiara%Altare%NULL%2,      Chiara%Altare%NULL%0,      Stephen A.%Lauer%NULL%2,      Stephen A.%Lauer%NULL%0,      Krya H.%Grantz%NULL%2,      Krya H.%Grantz%NULL%0,      Andrew S.%Azman%NULL%2,      Andrew S.%Azman%NULL%0,      Paul%Spiegel%NULL%2,      Paul%Spiegel%NULL%0,      Parveen%Parmar%NULL%3,      Parveen%Parmar%NULL%0,      Parveen%Parmar%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,       H.% Rihawi%null%1,       S.% Safadi%null%1,       M. A.% McGlasson%null%1,       W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,       C.% Infante%null%1,       I.% Vieitez%null%1,       S.% Larrea%null%1,       C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,      Hande%Gencer%NULL%1,      Katja%Kajikhina%NULL%1,      Sven%Rohleder%NULL%1,      Claudia%Hövener%NULL%1,      Marie%Tallarek%NULL%1,      Jacob%Spallek%NULL%1,      Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,      F.H.%Koh%NULL%1,      JT%Wu%NULL%1,      S.%Ngaserin%NULL%1,      A.%Ng%NULL%1,      BC%Ong%NULL%1,      V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,       Daniel%Coombs%NULL%1,       Julianne%Skarha%NULL%1,       Brandon%del Pozo%NULL%1,       Josiah%Rich%NULL%1,       Faye%Taxman%NULL%1,       Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,       Orit%Abrahim%NULL%2,       Orit%Abrahim%NULL%0,       Chiara%Altare%NULL%2,       Chiara%Altare%NULL%0,       Stephen A.%Lauer%NULL%2,       Stephen A.%Lauer%NULL%0,       Krya H.%Grantz%NULL%2,       Krya H.%Grantz%NULL%0,       Andrew S.%Azman%NULL%2,       Andrew S.%Azman%NULL%0,       Paul%Spiegel%NULL%2,       Paul%Spiegel%NULL%0,       Parveen%Parmar%NULL%3,       Parveen%Parmar%NULL%0,       Parveen%Parmar%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,        H.% Rihawi%null%1,        S.% Safadi%null%1,        M. A.% McGlasson%null%1,        W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,        C.% Infante%null%1,        I.% Vieitez%null%1,        S.% Larrea%null%1,        C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,       Hande%Gencer%NULL%1,       Katja%Kajikhina%NULL%1,       Sven%Rohleder%NULL%1,       Claudia%Hövener%NULL%1,       Marie%Tallarek%NULL%1,       Jacob%Spallek%NULL%1,       Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,       F.H.%Koh%NULL%1,       JT%Wu%NULL%1,       S.%Ngaserin%NULL%1,       A.%Ng%NULL%1,       BC%Ong%NULL%1,       V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -640,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -669,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -698,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -727,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -756,7 +810,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -814,7 +868,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -353,6 +353,42 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,       F.H.%Koh%NULL%1,       JT%Wu%NULL%1,       S.%Ngaserin%NULL%1,       A.%Ng%NULL%1,       BC%Ong%NULL%1,       V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,        Daniel%Coombs%NULL%1,        Julianne%Skarha%NULL%1,        Brandon%del Pozo%NULL%1,        Josiah%Rich%NULL%1,        Faye%Taxman%NULL%1,        Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,        Orit%Abrahim%NULL%2,        Orit%Abrahim%NULL%0,        Chiara%Altare%NULL%2,        Chiara%Altare%NULL%0,        Stephen A.%Lauer%NULL%2,        Stephen A.%Lauer%NULL%0,        Krya H.%Grantz%NULL%2,        Krya H.%Grantz%NULL%0,        Andrew S.%Azman%NULL%2,        Andrew S.%Azman%NULL%0,        Paul%Spiegel%NULL%2,        Paul%Spiegel%NULL%0,        Parveen%Parmar%NULL%3,        Parveen%Parmar%NULL%0,        Parveen%Parmar%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,         H.% Rihawi%null%1,         S.% Safadi%null%1,         M. A.% McGlasson%null%1,         W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,         C.% Infante%null%1,         I.% Vieitez%null%1,         S.% Larrea%null%1,         C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,        Hande%Gencer%NULL%1,        Katja%Kajikhina%NULL%1,        Sven%Rohleder%NULL%1,        Claudia%Hövener%NULL%1,        Marie%Tallarek%NULL%1,        Jacob%Spallek%NULL%1,        Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,        F.H.%Koh%NULL%1,        JT%Wu%NULL%1,        S.%Ngaserin%NULL%1,        A.%Ng%NULL%1,        BC%Ong%NULL%1,        V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,         Daniel%Coombs%NULL%1,         Julianne%Skarha%NULL%1,         Brandon%del Pozo%NULL%1,         Josiah%Rich%NULL%1,         Faye%Taxman%NULL%1,         Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,         Orit%Abrahim%NULL%2,         Orit%Abrahim%NULL%0,         Chiara%Altare%NULL%2,         Chiara%Altare%NULL%0,         Stephen A.%Lauer%NULL%2,         Stephen A.%Lauer%NULL%0,         Krya H.%Grantz%NULL%2,         Krya H.%Grantz%NULL%0,         Andrew S.%Azman%NULL%2,         Andrew S.%Azman%NULL%0,         Paul%Spiegel%NULL%2,         Paul%Spiegel%NULL%0,         Parveen%Parmar%NULL%3,         Parveen%Parmar%NULL%0,         Parveen%Parmar%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,          H.% Rihawi%null%1,          S.% Safadi%null%1,          M. A.% McGlasson%null%1,          W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,          C.% Infante%null%1,          I.% Vieitez%null%1,          S.% Larrea%null%1,          C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,         Hande%Gencer%NULL%1,         Katja%Kajikhina%NULL%1,         Sven%Rohleder%NULL%1,         Claudia%Hövener%NULL%1,         Marie%Tallarek%NULL%1,         Jacob%Spallek%NULL%1,         Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,         F.H.%Koh%NULL%1,         JT%Wu%NULL%1,         S.%Ngaserin%NULL%1,         A.%Ng%NULL%1,         BC%Ong%NULL%1,         V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -694,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -723,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -752,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -781,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -810,7 +846,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -868,7 +904,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="121">
   <si>
     <t>Doi</t>
   </si>
@@ -389,6 +389,42 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,         F.H.%Koh%NULL%1,         JT%Wu%NULL%1,         S.%Ngaserin%NULL%1,         A.%Ng%NULL%1,         BC%Ong%NULL%1,         V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,          Daniel%Coombs%NULL%1,          Julianne%Skarha%NULL%1,          Brandon%del Pozo%NULL%1,          Josiah%Rich%NULL%1,          Faye%Taxman%NULL%1,          Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,          Orit%Abrahim%NULL%2,          Orit%Abrahim%NULL%0,          Chiara%Altare%NULL%2,          Chiara%Altare%NULL%0,          Stephen A.%Lauer%NULL%2,          Stephen A.%Lauer%NULL%0,          Krya H.%Grantz%NULL%2,          Krya H.%Grantz%NULL%0,          Andrew S.%Azman%NULL%2,          Andrew S.%Azman%NULL%0,          Paul%Spiegel%NULL%2,          Paul%Spiegel%NULL%0,          Parveen%Parmar%NULL%3,          Parveen%Parmar%NULL%0,          Parveen%Parmar%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,           H.% Rihawi%null%1,           S.% Safadi%null%1,           M. A.% McGlasson%null%1,           W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,           C.% Infante%null%1,           I.% Vieitez%null%1,           S.% Larrea%null%1,           C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,          Hande%Gencer%NULL%1,          Katja%Kajikhina%NULL%1,          Sven%Rohleder%NULL%1,          Claudia%Hövener%NULL%1,          Marie%Tallarek%NULL%1,          Jacob%Spallek%NULL%1,          Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,          F.H.%Koh%NULL%1,          JT%Wu%NULL%1,          S.%Ngaserin%NULL%1,          A.%Ng%NULL%1,          BC%Ong%NULL%1,          V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,           Daniel%Coombs%NULL%1,           Julianne%Skarha%NULL%1,           Brandon%del Pozo%NULL%1,           Josiah%Rich%NULL%1,           Faye%Taxman%NULL%1,           Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,           Orit%Abrahim%NULL%2,           Orit%Abrahim%NULL%0,           Chiara%Altare%NULL%2,           Chiara%Altare%NULL%0,           Stephen A.%Lauer%NULL%2,           Stephen A.%Lauer%NULL%0,           Krya H.%Grantz%NULL%2,           Krya H.%Grantz%NULL%0,           Andrew S.%Azman%NULL%2,           Andrew S.%Azman%NULL%0,           Paul%Spiegel%NULL%2,           Paul%Spiegel%NULL%0,           Parveen%Parmar%NULL%3,           Parveen%Parmar%NULL%0,           Parveen%Parmar%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,            H.% Rihawi%null%1,            S.% Safadi%null%1,            M. A.% McGlasson%null%1,            W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,            C.% Infante%null%1,            I.% Vieitez%null%1,            S.% Larrea%null%1,            C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,           Hande%Gencer%NULL%1,           Katja%Kajikhina%NULL%1,           Sven%Rohleder%NULL%1,           Claudia%Hövener%NULL%1,           Marie%Tallarek%NULL%1,           Jacob%Spallek%NULL%1,           Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,           F.H.%Koh%NULL%1,           JT%Wu%NULL%1,           S.%Ngaserin%NULL%1,           A.%Ng%NULL%1,           BC%Ong%NULL%1,           V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -730,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -759,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -788,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -817,7 +853,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -846,7 +882,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -904,7 +940,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="133">
   <si>
     <t>Doi</t>
   </si>
@@ -425,6 +425,42 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,           F.H.%Koh%NULL%1,           JT%Wu%NULL%1,           S.%Ngaserin%NULL%1,           A.%Ng%NULL%1,           BC%Ong%NULL%1,           V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,            Daniel%Coombs%NULL%1,            Julianne%Skarha%NULL%1,            Brandon%del Pozo%NULL%1,            Josiah%Rich%NULL%1,            Faye%Taxman%NULL%1,            Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,            Orit%Abrahim%NULL%2,            Orit%Abrahim%NULL%0,            Chiara%Altare%NULL%2,            Chiara%Altare%NULL%0,            Stephen A.%Lauer%NULL%2,            Stephen A.%Lauer%NULL%0,            Krya H.%Grantz%NULL%2,            Krya H.%Grantz%NULL%0,            Andrew S.%Azman%NULL%2,            Andrew S.%Azman%NULL%0,            Paul%Spiegel%NULL%2,            Paul%Spiegel%NULL%0,            Parveen%Parmar%NULL%3,            Parveen%Parmar%NULL%0,            Parveen%Parmar%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,             H.% Rihawi%null%1,             S.% Safadi%null%1,             M. A.% McGlasson%null%1,             W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,             C.% Infante%null%1,             I.% Vieitez%null%1,             S.% Larrea%null%1,             C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,            Hande%Gencer%NULL%1,            Katja%Kajikhina%NULL%1,            Sven%Rohleder%NULL%1,            Claudia%Hövener%NULL%1,            Marie%Tallarek%NULL%1,            Jacob%Spallek%NULL%1,            Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,            F.H.%Koh%NULL%1,            JT%Wu%NULL%1,            S.%Ngaserin%NULL%1,            A.%Ng%NULL%1,            BC%Ong%NULL%1,            V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,             Daniel%Coombs%NULL%1,             Julianne%Skarha%NULL%1,             Brandon%del Pozo%NULL%1,             Josiah%Rich%NULL%1,             Faye%Taxman%NULL%1,             Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,             Orit%Abrahim%NULL%2,             Orit%Abrahim%NULL%0,             Chiara%Altare%NULL%2,             Chiara%Altare%NULL%0,             Stephen A.%Lauer%NULL%2,             Stephen A.%Lauer%NULL%0,             Krya H.%Grantz%NULL%2,             Krya H.%Grantz%NULL%0,             Andrew S.%Azman%NULL%2,             Andrew S.%Azman%NULL%0,             Paul%Spiegel%NULL%2,             Paul%Spiegel%NULL%0,             Parveen%Parmar%NULL%3,             Parveen%Parmar%NULL%0,             Parveen%Parmar%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,              H.% Rihawi%null%1,              S.% Safadi%null%1,              M. A.% McGlasson%null%1,              W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,              C.% Infante%null%1,              I.% Vieitez%null%1,              S.% Larrea%null%1,              C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,             Hande%Gencer%NULL%1,             Katja%Kajikhina%NULL%1,             Sven%Rohleder%NULL%1,             Claudia%Hövener%NULL%1,             Marie%Tallarek%NULL%1,             Jacob%Spallek%NULL%1,             Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,             F.H.%Koh%NULL%1,             JT%Wu%NULL%1,             S.%Ngaserin%NULL%1,             A.%Ng%NULL%1,             BC%Ong%NULL%1,             V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -766,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -795,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -824,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -853,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -882,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -940,7 +976,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="140">
   <si>
     <t>Doi</t>
   </si>
@@ -461,6 +461,27 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,             F.H.%Koh%NULL%1,             JT%Wu%NULL%1,             S.%Ngaserin%NULL%1,             A.%Ng%NULL%1,             BC%Ong%NULL%1,             V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,              Daniel%Coombs%NULL%1,              Julianne%Skarha%NULL%1,              Brandon%del Pozo%NULL%1,              Josiah%Rich%NULL%1,              Faye%Taxman%NULL%1,              Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,              Orit%Abrahim%NULL%2,              Orit%Abrahim%NULL%0,              Chiara%Altare%NULL%2,              Chiara%Altare%NULL%0,              Stephen A.%Lauer%NULL%2,              Stephen A.%Lauer%NULL%0,              Krya H.%Grantz%NULL%2,              Krya H.%Grantz%NULL%0,              Andrew S.%Azman%NULL%2,              Andrew S.%Azman%NULL%0,              Paul%Spiegel%NULL%2,              Paul%Spiegel%NULL%0,              Parveen%Parmar%NULL%3,              Parveen%Parmar%NULL%0,              Parveen%Parmar%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,               H.% Rihawi%null%1,               S.% Safadi%null%1,               M. A.% McGlasson%null%1,               W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,               C.% Infante%null%1,               I.% Vieitez%null%1,               S.% Larrea%null%1,               C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,              Hande%Gencer%NULL%1,              Katja%Kajikhina%NULL%1,              Sven%Rohleder%NULL%1,              Claudia%Hövener%NULL%1,              Marie%Tallarek%NULL%1,              Jacob%Spallek%NULL%1,              Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,              F.H.%Koh%NULL%1,              JT%Wu%NULL%1,              S.%Ngaserin%NULL%1,              A.%Ng%NULL%1,              BC%Ong%NULL%1,              V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -802,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -831,7 +852,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -860,13 +881,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -889,13 +910,13 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
@@ -918,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -976,7 +997,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="146">
   <si>
     <t>Doi</t>
   </si>
@@ -482,6 +482,24 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,              F.H.%Koh%NULL%1,              JT%Wu%NULL%1,              S.%Ngaserin%NULL%1,              A.%Ng%NULL%1,              BC%Ong%NULL%1,              V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,               Daniel%Coombs%NULL%1,               Julianne%Skarha%NULL%1,               Brandon%del Pozo%NULL%1,               Josiah%Rich%NULL%1,               Faye%Taxman%NULL%1,               Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,               Orit%Abrahim%NULL%2,               Orit%Abrahim%NULL%0,               Chiara%Altare%NULL%2,               Chiara%Altare%NULL%0,               Stephen A.%Lauer%NULL%2,               Stephen A.%Lauer%NULL%0,               Krya H.%Grantz%NULL%2,               Krya H.%Grantz%NULL%0,               Andrew S.%Azman%NULL%2,               Andrew S.%Azman%NULL%0,               Paul%Spiegel%NULL%2,               Paul%Spiegel%NULL%0,               Parveen%Parmar%NULL%3,               Parveen%Parmar%NULL%0,               Parveen%Parmar%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                H.% Rihawi%null%1,                S.% Safadi%null%1,                M. A.% McGlasson%null%1,                W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                C.% Infante%null%1,                I.% Vieitez%null%1,                S.% Larrea%null%1,                C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,               Hande%Gencer%NULL%1,               Katja%Kajikhina%NULL%1,               Sven%Rohleder%NULL%1,               Claudia%Hövener%NULL%1,               Marie%Tallarek%NULL%1,               Jacob%Spallek%NULL%1,               Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,               F.H.%Koh%NULL%1,               JT%Wu%NULL%1,               S.%Ngaserin%NULL%1,               A.%Ng%NULL%1,               BC%Ong%NULL%1,               V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -823,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -852,7 +870,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -881,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -910,7 +928,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -939,7 +957,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -997,7 +1015,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="158">
   <si>
     <t>Doi</t>
   </si>
@@ -500,6 +500,42 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,               F.H.%Koh%NULL%1,               JT%Wu%NULL%1,               S.%Ngaserin%NULL%1,               A.%Ng%NULL%1,               BC%Ong%NULL%1,               V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                Daniel%Coombs%NULL%1,                Julianne%Skarha%NULL%1,                Brandon%del Pozo%NULL%1,                Josiah%Rich%NULL%1,                Faye%Taxman%NULL%1,                Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                Orit%Abrahim%NULL%2,                Orit%Abrahim%NULL%0,                Chiara%Altare%NULL%2,                Chiara%Altare%NULL%0,                Stephen A.%Lauer%NULL%2,                Stephen A.%Lauer%NULL%0,                Krya H.%Grantz%NULL%2,                Krya H.%Grantz%NULL%0,                Andrew S.%Azman%NULL%2,                Andrew S.%Azman%NULL%0,                Paul%Spiegel%NULL%2,                Paul%Spiegel%NULL%0,                Parveen%Parmar%NULL%3,                Parveen%Parmar%NULL%0,                Parveen%Parmar%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                 H.% Rihawi%null%1,                 S.% Safadi%null%1,                 M. A.% McGlasson%null%1,                 W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                 C.% Infante%null%1,                 I.% Vieitez%null%1,                 S.% Larrea%null%1,                 C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                Hande%Gencer%NULL%1,                Katja%Kajikhina%NULL%1,                Sven%Rohleder%NULL%1,                Claudia%Hövener%NULL%1,                Marie%Tallarek%NULL%1,                Jacob%Spallek%NULL%1,                Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                F.H.%Koh%NULL%1,                JT%Wu%NULL%1,                S.%Ngaserin%NULL%1,                A.%Ng%NULL%1,                BC%Ong%NULL%1,                V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                 Daniel%Coombs%NULL%1,                 Julianne%Skarha%NULL%1,                 Brandon%del Pozo%NULL%1,                 Josiah%Rich%NULL%1,                 Faye%Taxman%NULL%1,                 Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                 Orit%Abrahim%NULL%2,                 Orit%Abrahim%NULL%0,                 Chiara%Altare%NULL%2,                 Chiara%Altare%NULL%0,                 Stephen A.%Lauer%NULL%2,                 Stephen A.%Lauer%NULL%0,                 Krya H.%Grantz%NULL%2,                 Krya H.%Grantz%NULL%0,                 Andrew S.%Azman%NULL%2,                 Andrew S.%Azman%NULL%0,                 Paul%Spiegel%NULL%2,                 Paul%Spiegel%NULL%0,                 Parveen%Parmar%NULL%3,                 Parveen%Parmar%NULL%0,                 Parveen%Parmar%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                  H.% Rihawi%null%1,                  S.% Safadi%null%1,                  M. A.% McGlasson%null%1,                  W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                  C.% Infante%null%1,                  I.% Vieitez%null%1,                  S.% Larrea%null%1,                  C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                 Hande%Gencer%NULL%1,                 Katja%Kajikhina%NULL%1,                 Sven%Rohleder%NULL%1,                 Claudia%Hövener%NULL%1,                 Marie%Tallarek%NULL%1,                 Jacob%Spallek%NULL%1,                 Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                 F.H.%Koh%NULL%1,                 JT%Wu%NULL%1,                 S.%Ngaserin%NULL%1,                 A.%Ng%NULL%1,                 BC%Ong%NULL%1,                 V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -841,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -870,7 +906,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -899,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -928,7 +964,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -957,7 +993,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1015,7 +1051,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="164">
   <si>
     <t>Doi</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                 F.H.%Koh%NULL%1,                 JT%Wu%NULL%1,                 S.%Ngaserin%NULL%1,                 A.%Ng%NULL%1,                 BC%Ong%NULL%1,                 V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                  Daniel%Coombs%NULL%1,                  Julianne%Skarha%NULL%1,                  Brandon%del Pozo%NULL%1,                  Josiah%Rich%NULL%1,                  Faye%Taxman%NULL%1,                  Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                  Orit%Abrahim%NULL%2,                  Orit%Abrahim%NULL%0,                  Chiara%Altare%NULL%2,                  Chiara%Altare%NULL%0,                  Stephen A.%Lauer%NULL%2,                  Stephen A.%Lauer%NULL%0,                  Krya H.%Grantz%NULL%2,                  Krya H.%Grantz%NULL%0,                  Andrew S.%Azman%NULL%2,                  Andrew S.%Azman%NULL%0,                  Paul%Spiegel%NULL%2,                  Paul%Spiegel%NULL%0,                  Parveen%Parmar%NULL%3,                  Parveen%Parmar%NULL%0,                  Parveen%Parmar%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                   H.% Rihawi%null%1,                   S.% Safadi%null%1,                   M. A.% McGlasson%null%1,                   W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                   C.% Infante%null%1,                   I.% Vieitez%null%1,                   S.% Larrea%null%1,                   C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                  Hande%Gencer%NULL%1,                  Katja%Kajikhina%NULL%1,                  Sven%Rohleder%NULL%1,                  Claudia%Hövener%NULL%1,                  Marie%Tallarek%NULL%1,                  Jacob%Spallek%NULL%1,                  Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                  F.H.%Koh%NULL%1,                  JT%Wu%NULL%1,                  S.%Ngaserin%NULL%1,                  A.%Ng%NULL%1,                  BC%Ong%NULL%1,                  V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -877,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -906,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -935,7 +953,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -964,7 +982,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -993,7 +1011,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1051,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="174">
   <si>
     <t>Doi</t>
   </si>
@@ -554,6 +554,36 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                  F.H.%Koh%NULL%1,                  JT%Wu%NULL%1,                  S.%Ngaserin%NULL%1,                  A.%Ng%NULL%1,                  BC%Ong%NULL%1,                  V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                   Daniel%Coombs%NULL%1,                   Julianne%Skarha%NULL%1,                   Brandon%del Pozo%NULL%1,                   Josiah%Rich%NULL%1,                   Faye%Taxman%NULL%1,                   Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                   Orit%Abrahim%NULL%2,                   Orit%Abrahim%NULL%0,                   Chiara%Altare%NULL%2,                   Chiara%Altare%NULL%0,                   Stephen A.%Lauer%NULL%2,                   Stephen A.%Lauer%NULL%0,                   Krya H.%Grantz%NULL%2,                   Krya H.%Grantz%NULL%0,                   Andrew S.%Azman%NULL%2,                   Andrew S.%Azman%NULL%0,                   Paul%Spiegel%NULL%2,                   Paul%Spiegel%NULL%0,                   Parveen%Parmar%NULL%3,                   Parveen%Parmar%NULL%0,                   Parveen%Parmar%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                    H.% Rihawi%null%1,                    S.% Safadi%null%1,                    M. A.% McGlasson%null%1,                    W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                    C.% Infante%null%1,                    I.% Vieitez%null%1,                    S.% Larrea%null%1,                    C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                   Hande%Gencer%NULL%1,                   Katja%Kajikhina%NULL%1,                   Sven%Rohleder%NULL%1,                   Claudia%Hövener%NULL%1,                   Marie%Tallarek%NULL%1,                   Jacob%Spallek%NULL%1,                   Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                   F.H.%Koh%NULL%1,                   JT%Wu%NULL%1,                   S.%Ngaserin%NULL%1,                   A.%Ng%NULL%1,                   BC%Ong%NULL%1,                   V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -895,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -907,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -924,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -936,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -953,7 +983,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -965,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -982,7 +1012,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -994,7 +1024,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -1011,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1023,7 +1053,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -1052,7 +1082,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -1069,7 +1099,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1081,7 +1111,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -584,6 +584,24 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                   F.H.%Koh%NULL%1,                   JT%Wu%NULL%1,                   S.%Ngaserin%NULL%1,                   A.%Ng%NULL%1,                   BC%Ong%NULL%1,                   V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                    Daniel%Coombs%NULL%1,                    Julianne%Skarha%NULL%1,                    Brandon%del Pozo%NULL%1,                    Josiah%Rich%NULL%1,                    Faye%Taxman%NULL%1,                    Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                    Orit%Abrahim%NULL%2,                    Orit%Abrahim%NULL%0,                    Chiara%Altare%NULL%2,                    Chiara%Altare%NULL%0,                    Stephen A.%Lauer%NULL%2,                    Stephen A.%Lauer%NULL%0,                    Krya H.%Grantz%NULL%2,                    Krya H.%Grantz%NULL%0,                    Andrew S.%Azman%NULL%2,                    Andrew S.%Azman%NULL%0,                    Paul%Spiegel%NULL%2,                    Paul%Spiegel%NULL%0,                    Parveen%Parmar%NULL%3,                    Parveen%Parmar%NULL%0,                    Parveen%Parmar%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%2,                     H.% Rihawi%null%1,                     S.% Safadi%null%1,                     M. A.% McGlasson%null%1,                     W. % Obaid%null%1,  M.%Hariri%null%0,  H.% Rihawi%null%1,  S.% Safadi%null%1,  M. A.% McGlasson%null%1,  W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%2,                     C.% Infante%null%1,                     I.% Vieitez%null%1,                     S.% Larrea%null%1,                     C. % Santoro%null%1,  I.%Bojorquez%null%0,  C.% Infante%null%1,  I.% Vieitez%null%1,  S.% Larrea%null%1,  C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                    Hande%Gencer%NULL%1,                    Katja%Kajikhina%NULL%1,                    Sven%Rohleder%NULL%1,                    Claudia%Hövener%NULL%1,                    Marie%Tallarek%NULL%1,                    Jacob%Spallek%NULL%1,                    Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                    F.H.%Koh%NULL%1,                    JT%Wu%NULL%1,                    S.%Ngaserin%NULL%1,                    A.%Ng%NULL%1,                    BC%Ong%NULL%1,                    V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -925,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -954,7 +972,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -983,7 +1001,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1012,7 +1030,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1041,7 +1059,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1099,7 +1117,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="211">
   <si>
     <t>Doi</t>
   </si>
@@ -602,6 +602,99 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                    F.H.%Koh%NULL%1,                    JT%Wu%NULL%1,                    S.%Ngaserin%NULL%1,                    A.%Ng%NULL%1,                    BC%Ong%NULL%1,                    V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                     Daniel%Coombs%NULL%1,                     Julianne%Skarha%NULL%1,                     Brandon%del Pozo%NULL%1,                     Josiah%Rich%NULL%1,                     Faye%Taxman%NULL%1,                     Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                     Orit%Abrahim%NULL%2,                     Orit%Abrahim%NULL%0,                     Chiara%Altare%NULL%2,                     Chiara%Altare%NULL%0,                     Stephen A.%Lauer%NULL%2,                     Stephen A.%Lauer%NULL%0,                     Krya H.%Grantz%NULL%2,                     Krya H.%Grantz%NULL%0,                     Andrew S.%Azman%NULL%2,                     Andrew S.%Azman%NULL%0,                     Paul%Spiegel%NULL%2,                     Paul%Spiegel%NULL%0,                     Parveen%Parmar%NULL%3,                     Parveen%Parmar%NULL%0,                     Parveen%Parmar%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                      H.% Rihawi%null%1,                      S.% Safadi%null%1,                      M. A.% McGlasson%null%1,                      W. % Obaid%null%1,   M.%Hariri%null%1,   H.% Rihawi%null%1,   S.% Safadi%null%1,   M. A.% McGlasson%null%1,   W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                      C.% Infante%null%1,                      I.% Vieitez%null%1,                      S.% Larrea%null%1,                      C. % Santoro%null%1,   I.%Bojorquez%null%1,   C.% Infante%null%1,   I.% Vieitez%null%1,   S.% Larrea%null%1,   C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                     Hande%Gencer%NULL%1,                     Katja%Kajikhina%NULL%1,                     Sven%Rohleder%NULL%1,                     Claudia%Hövener%NULL%1,                     Marie%Tallarek%NULL%1,                     Jacob%Spallek%NULL%1,                     Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                     F.H.%Koh%NULL%1,                     JT%Wu%NULL%1,                     S.%Ngaserin%NULL%1,                     A.%Ng%NULL%1,                     BC%Ong%NULL%1,                     V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                      Daniel%Coombs%NULL%1,                      Julianne%Skarha%NULL%1,                      Brandon%del Pozo%NULL%1,                      Josiah%Rich%NULL%1,                      Faye%Taxman%NULL%1,                      Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                      Orit%Abrahim%NULL%2,                      Orit%Abrahim%NULL%0,                      Chiara%Altare%NULL%2,                      Chiara%Altare%NULL%0,                      Stephen A.%Lauer%NULL%2,                      Stephen A.%Lauer%NULL%0,                      Krya H.%Grantz%NULL%2,                      Krya H.%Grantz%NULL%0,                      Andrew S.%Azman%NULL%2,                      Andrew S.%Azman%NULL%0,                      Paul%Spiegel%NULL%2,                      Paul%Spiegel%NULL%0,                      Parveen%Parmar%NULL%3,                      Parveen%Parmar%NULL%0,                      Parveen%Parmar%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                       H.% Rihawi%null%1,                       S.% Safadi%null%1,                       M. A.% McGlasson%null%1,                       W. % Obaid%null%1,    M.%Hariri%null%1,    H.% Rihawi%null%1,    S.% Safadi%null%1,    M. A.% McGlasson%null%1,    W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                       C.% Infante%null%1,                       I.% Vieitez%null%1,                       S.% Larrea%null%1,                       C. % Santoro%null%1,    I.%Bojorquez%null%1,    C.% Infante%null%1,    I.% Vieitez%null%1,    S.% Larrea%null%1,    C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                      Hande%Gencer%NULL%1,                      Katja%Kajikhina%NULL%1,                      Sven%Rohleder%NULL%1,                      Claudia%Hövener%NULL%1,                      Marie%Tallarek%NULL%1,                      Jacob%Spallek%NULL%1,                      Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                      F.H.%Koh%NULL%1,                      JT%Wu%NULL%1,                      S.%Ngaserin%NULL%1,                      A.%Ng%NULL%1,                      BC%Ong%NULL%1,                      V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                       Daniel%Coombs%NULL%1,                       Julianne%Skarha%NULL%1,                       Brandon%del Pozo%NULL%1,                       Josiah%Rich%NULL%1,                       Faye%Taxman%NULL%1,                       Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                       Orit%Abrahim%NULL%2,                       Orit%Abrahim%NULL%0,                       Chiara%Altare%NULL%2,                       Chiara%Altare%NULL%0,                       Stephen A.%Lauer%NULL%2,                       Stephen A.%Lauer%NULL%0,                       Krya H.%Grantz%NULL%2,                       Krya H.%Grantz%NULL%0,                       Andrew S.%Azman%NULL%2,                       Andrew S.%Azman%NULL%0,                       Paul%Spiegel%NULL%2,                       Paul%Spiegel%NULL%0,                       Parveen%Parmar%NULL%3,                       Parveen%Parmar%NULL%0,                       Parveen%Parmar%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                        H.% Rihawi%null%1,                        S.% Safadi%null%1,                        M. A.% McGlasson%null%1,                        W. % Obaid%null%1,     M.%Hariri%null%1,     H.% Rihawi%null%1,     S.% Safadi%null%1,     M. A.% McGlasson%null%1,     W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                        C.% Infante%null%1,                        I.% Vieitez%null%1,                        S.% Larrea%null%1,                        C. % Santoro%null%1,     I.%Bojorquez%null%1,     C.% Infante%null%1,     I.% Vieitez%null%1,     S.% Larrea%null%1,     C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                       Hande%Gencer%NULL%1,                       Katja%Kajikhina%NULL%1,                       Sven%Rohleder%NULL%1,                       Claudia%Hövener%NULL%1,                       Marie%Tallarek%NULL%1,                       Jacob%Spallek%NULL%1,                       Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                       F.H.%Koh%NULL%1,                       JT%Wu%NULL%1,                       S.%Ngaserin%NULL%1,                       A.%Ng%NULL%1,                       BC%Ong%NULL%1,                       V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                        Daniel%Coombs%NULL%1,                        Julianne%Skarha%NULL%1,                        Brandon%del Pozo%NULL%1,                        Josiah%Rich%NULL%1,                        Faye%Taxman%NULL%1,                        Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                        Orit%Abrahim%NULL%2,                        Orit%Abrahim%NULL%0,                        Chiara%Altare%NULL%2,                        Chiara%Altare%NULL%0,                        Stephen A.%Lauer%NULL%2,                        Stephen A.%Lauer%NULL%0,                        Krya H.%Grantz%NULL%2,                        Krya H.%Grantz%NULL%0,                        Andrew S.%Azman%NULL%2,                        Andrew S.%Azman%NULL%0,                        Paul%Spiegel%NULL%2,                        Paul%Spiegel%NULL%0,                        Parveen%Parmar%NULL%3,                        Parveen%Parmar%NULL%0,                        Parveen%Parmar%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                         H.% Rihawi%null%1,                         S.% Safadi%null%1,                         M. A.% McGlasson%null%1,                         W. % Obaid%null%1,      M.%Hariri%null%1,      H.% Rihawi%null%1,      S.% Safadi%null%1,      M. A.% McGlasson%null%1,      W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                         C.% Infante%null%1,                         I.% Vieitez%null%1,                         S.% Larrea%null%1,                         C. % Santoro%null%1,      I.%Bojorquez%null%1,      C.% Infante%null%1,      I.% Vieitez%null%1,      S.% Larrea%null%1,      C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                        Hande%Gencer%NULL%1,                        Katja%Kajikhina%NULL%1,                        Sven%Rohleder%NULL%1,                        Claudia%Hövener%NULL%1,                        Marie%Tallarek%NULL%1,                        Jacob%Spallek%NULL%1,                        Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                        F.H.%Koh%NULL%1,                        JT%Wu%NULL%1,                        S.%Ngaserin%NULL%1,                        A.%Ng%NULL%1,                        BC%Ong%NULL%1,                        V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                         Daniel%Coombs%NULL%1,                         Julianne%Skarha%NULL%1,                         Brandon%del Pozo%NULL%1,                         Josiah%Rich%NULL%1,                         Faye%Taxman%NULL%1,                         Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                         Orit%Abrahim%NULL%2,                         Orit%Abrahim%NULL%0,                         Chiara%Altare%NULL%2,                         Chiara%Altare%NULL%0,                         Stephen A.%Lauer%NULL%2,                         Stephen A.%Lauer%NULL%0,                         Krya H.%Grantz%NULL%2,                         Krya H.%Grantz%NULL%0,                         Andrew S.%Azman%NULL%2,                         Andrew S.%Azman%NULL%0,                         Paul%Spiegel%NULL%2,                         Paul%Spiegel%NULL%0,                         Parveen%Parmar%NULL%3,                         Parveen%Parmar%NULL%0,                         Parveen%Parmar%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                          H.% Rihawi%null%1,                          S.% Safadi%null%1,                          M. A.% McGlasson%null%1,                          W. % Obaid%null%1,       M.%Hariri%null%1,       H.% Rihawi%null%1,       S.% Safadi%null%1,       M. A.% McGlasson%null%1,       W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                          C.% Infante%null%1,                          I.% Vieitez%null%1,                          S.% Larrea%null%1,                          C. % Santoro%null%1,       I.%Bojorquez%null%1,       C.% Infante%null%1,       I.% Vieitez%null%1,       S.% Larrea%null%1,       C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                         Hande%Gencer%NULL%1,                         Katja%Kajikhina%NULL%1,                         Sven%Rohleder%NULL%1,                         Claudia%Hövener%NULL%1,                         Marie%Tallarek%NULL%1,                         Jacob%Spallek%NULL%1,                         Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                         F.H.%Koh%NULL%1,                         JT%Wu%NULL%1,                         S.%Ngaserin%NULL%1,                         A.%Ng%NULL%1,                         BC%Ong%NULL%1,                         V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -928,6 +1021,9 @@
       <c r="I1" t="s">
         <v>68</v>
       </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -943,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -956,6 +1052,9 @@
       </c>
       <c r="I2" t="s">
         <v>165</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -972,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -985,6 +1084,9 @@
       </c>
       <c r="I3" t="s">
         <v>167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1001,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1014,6 +1116,9 @@
       </c>
       <c r="I4" t="s">
         <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1030,7 +1135,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1043,6 +1148,9 @@
       </c>
       <c r="I5" t="s">
         <v>169</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1167,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1072,6 +1180,9 @@
       </c>
       <c r="I6" t="s">
         <v>172</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1102,6 +1213,9 @@
       <c r="I7" t="s">
         <v>167</v>
       </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
@@ -1117,7 +1231,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1130,6 +1244,9 @@
       </c>
       <c r="I8" t="s">
         <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/98.xlsx
+++ b/Covid_19_Dataset_and_References/References/98.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="223">
   <si>
     <t>Doi</t>
   </si>
@@ -695,6 +695,42 @@
   </si>
   <si>
     <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                         F.H.%Koh%NULL%1,                         JT%Wu%NULL%1,                         S.%Ngaserin%NULL%1,                         A.%Ng%NULL%1,                         BC%Ong%NULL%1,                         V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                          Daniel%Coombs%NULL%1,                          Julianne%Skarha%NULL%1,                          Brandon%del Pozo%NULL%1,                          Josiah%Rich%NULL%1,                          Faye%Taxman%NULL%1,                          Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                          Orit%Abrahim%NULL%2,                          Orit%Abrahim%NULL%0,                          Chiara%Altare%NULL%2,                          Chiara%Altare%NULL%0,                          Stephen A.%Lauer%NULL%2,                          Stephen A.%Lauer%NULL%0,                          Krya H.%Grantz%NULL%2,                          Krya H.%Grantz%NULL%0,                          Andrew S.%Azman%NULL%2,                          Andrew S.%Azman%NULL%0,                          Paul%Spiegel%NULL%2,                          Paul%Spiegel%NULL%0,                          Parveen%Parmar%NULL%3,                          Parveen%Parmar%NULL%0,                          Parveen%Parmar%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                           H.% Rihawi%null%1,                           S.% Safadi%null%1,                           M. A.% McGlasson%null%1,                           W. % Obaid%null%1,        M.%Hariri%null%1,        H.% Rihawi%null%1,        S.% Safadi%null%1,        M. A.% McGlasson%null%1,        W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                           C.% Infante%null%1,                           I.% Vieitez%null%1,                           S.% Larrea%null%1,                           C. % Santoro%null%1,        I.%Bojorquez%null%1,        C.% Infante%null%1,        I.% Vieitez%null%1,        S.% Larrea%null%1,        C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                          Hande%Gencer%NULL%1,                          Katja%Kajikhina%NULL%1,                          Sven%Rohleder%NULL%1,                          Claudia%Hövener%NULL%1,                          Marie%Tallarek%NULL%1,                          Jacob%Spallek%NULL%1,                          Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                          F.H.%Koh%NULL%1,                          JT%Wu%NULL%1,                          S.%Ngaserin%NULL%1,                          A.%Ng%NULL%1,                          BC%Ong%NULL%1,                          V.J.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Irvine%NULL%1,                           Daniel%Coombs%NULL%1,                           Julianne%Skarha%NULL%1,                           Brandon%del Pozo%NULL%1,                           Josiah%Rich%NULL%1,                           Faye%Taxman%NULL%1,                           Traci C.%Green%Traci.c.green@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Shaun%Truelove%NULL%1,                           Orit%Abrahim%NULL%2,                           Orit%Abrahim%NULL%0,                           Chiara%Altare%NULL%2,                           Chiara%Altare%NULL%0,                           Stephen A.%Lauer%NULL%2,                           Stephen A.%Lauer%NULL%0,                           Krya H.%Grantz%NULL%2,                           Krya H.%Grantz%NULL%0,                           Andrew S.%Azman%NULL%2,                           Andrew S.%Azman%NULL%0,                           Paul%Spiegel%NULL%2,                           Paul%Spiegel%NULL%0,                           Parveen%Parmar%NULL%3,                           Parveen%Parmar%NULL%0,                           Parveen%Parmar%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Hariri%null%1,                            H.% Rihawi%null%1,                            S.% Safadi%null%1,                            M. A.% McGlasson%null%1,                            W. % Obaid%null%1,         M.%Hariri%null%1,         H.% Rihawi%null%1,         S.% Safadi%null%1,         M. A.% McGlasson%null%1,         W. % Obaid%null%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Bojorquez%null%1,                            C.% Infante%null%1,                            I.% Vieitez%null%1,                            S.% Larrea%null%1,                            C. % Santoro%null%1,         I.%Bojorquez%null%1,         C.% Infante%null%1,         I.% Vieitez%null%1,         S.% Larrea%null%1,         C. % Santoro%null%1]</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%1,                           Hande%Gencer%NULL%1,                           Katja%Kajikhina%NULL%1,                           Sven%Rohleder%NULL%1,                           Claudia%Hövener%NULL%1,                           Marie%Tallarek%NULL%1,                           Jacob%Spallek%NULL%1,                           Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%1]</t>
+  </si>
+  <si>
+    <t>[MH%Chew%chew.min.hoe@singhealth.com.sg%1,                           F.H.%Koh%NULL%1,                           JT%Wu%NULL%1,                           S.%Ngaserin%NULL%1,                           A.%Ng%NULL%1,                           BC%Ong%NULL%1,                           V.J.%Lee%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1071,7 +1107,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1103,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1135,7 +1171,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1167,7 +1203,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1231,7 +1267,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
